--- a/Excel/Nobelium - Leaderboard.xlsx
+++ b/Excel/Nobelium - Leaderboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thama\OneDrive\Desktop\Nobelium-project\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thama\OneDrive\Desktop\assignments\Nobelium-project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63A3AC0-7879-49DF-AB1B-2AC40199675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0BDF2-034C-47B2-B46F-2BAD95180023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2746,7 +2746,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2792,6 +2792,11 @@
       <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -22904,10 +22909,10 @@
   <dimension ref="A1:CN494"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="CE97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="BB1" sqref="BB1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22954,7 +22959,8 @@
     <col min="51" max="51" width="10.33203125" customWidth="1"/>
     <col min="52" max="52" width="13.88671875" customWidth="1"/>
     <col min="53" max="53" width="10.33203125" customWidth="1"/>
-    <col min="54" max="55" width="10.77734375" customWidth="1"/>
+    <col min="54" max="54" width="10" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10.33203125" customWidth="1"/>
     <col min="57" max="57" width="11" customWidth="1"/>
     <col min="58" max="58" width="10.77734375" customWidth="1"/>
@@ -54450,6 +54456,7 @@
       <c r="F494" s="45"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B7 B9:B84 B86:B107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF($B$2:$B$107,B2)&gt;1</formula>
